--- a/Smoke_CheckList_TestCases_BugReport.xlsx
+++ b/Smoke_CheckList_TestCases_BugReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\37529\Desktop\QAM05\Диплом Skype\Готовое\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0BA001-0FA8-4BD4-AE0A-3C7A9C49F9BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B51B5C-ECEF-4156-8514-AC9E4CBB0FF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="471">
   <si>
     <t>#</t>
   </si>
@@ -299,9 +299,6 @@
     <t>Закладка удалена</t>
   </si>
   <si>
-    <t>Выбрать сообщения</t>
-  </si>
-  <si>
     <t>Сообщения помечены галочкой</t>
   </si>
   <si>
@@ -311,9 +308,6 @@
     <t>Удаление закладки с сообщения</t>
   </si>
   <si>
-    <t>Пометить сообщения как непрочитанные</t>
-  </si>
-  <si>
     <t>Сообщения помечены как непрочитанные</t>
   </si>
   <si>
@@ -323,9 +317,6 @@
     <t>В списке чатов отображается индикатор с количеством непрочитанных сообщений</t>
   </si>
   <si>
-    <t>Пожаловаться на сообщение</t>
-  </si>
-  <si>
     <t>Жалоба отправлена</t>
   </si>
   <si>
@@ -395,180 +386,93 @@
     <t>Файл отправлен</t>
   </si>
   <si>
-    <t>Отправить контакт</t>
-  </si>
-  <si>
     <t>Контакт отправлен</t>
   </si>
   <si>
-    <t>Отправить голосовое сообщение</t>
-  </si>
-  <si>
     <t>Голосовое сообщение отправлено</t>
   </si>
   <si>
-    <t>Отменить запись голосового сообщения</t>
-  </si>
-  <si>
     <t>Запись голосового сообщения отменена</t>
   </si>
   <si>
-    <t>Отправить видеосообщение</t>
-  </si>
-  <si>
     <t>Видеосообщение отправлено</t>
   </si>
   <si>
-    <t>Запланировать звонок</t>
-  </si>
-  <si>
     <t>Звонок запланирован с указанными параметрами</t>
   </si>
   <si>
-    <t>Отменить запланированный звонок</t>
-  </si>
-  <si>
     <t>Запланированный звонок удалён</t>
   </si>
   <si>
-    <t>Создать опрос</t>
-  </si>
-  <si>
     <t>Опрос создан</t>
   </si>
   <si>
-    <t>Удалить созданный опрос</t>
-  </si>
-  <si>
     <t>Созданный опрос удалён</t>
   </si>
   <si>
-    <t>Отправить несколько контактов</t>
-  </si>
-  <si>
     <t>Все выбранные контакты отправлены</t>
   </si>
   <si>
     <t>Аватар установлен</t>
   </si>
   <si>
-    <t>Установить аватар группового чата</t>
-  </si>
-  <si>
-    <t>Изменить аватар группового чата</t>
-  </si>
-  <si>
     <t>Аватар изменён</t>
   </si>
   <si>
-    <t>Удалить аватар группового чата</t>
-  </si>
-  <si>
     <t>Аватар удалён</t>
   </si>
   <si>
     <t>Название изменено</t>
   </si>
   <si>
-    <t>Изменить название группового чата</t>
-  </si>
-  <si>
-    <t>Скопировать ссылку на приглашение в чат в буфер обмена</t>
-  </si>
-  <si>
     <t>Ссылка скопирована в буфер обмена</t>
   </si>
   <si>
-    <t>Покинуть групповой чат</t>
-  </si>
-  <si>
     <t>Групповой чат покинут</t>
   </si>
   <si>
-    <t>Удалить участника из группового чата</t>
-  </si>
-  <si>
     <t>Участник удалён</t>
   </si>
   <si>
-    <t>Добавить пользователя на роль администратора в группу с модератором</t>
-  </si>
-  <si>
     <t>Пользователь добавлен в чат и назначен на роль администратора</t>
   </si>
   <si>
-    <t>Покинуть группу с модератором</t>
-  </si>
-  <si>
     <t xml:space="preserve">Группа с модератором покинута </t>
   </si>
   <si>
     <t>Группа с модератором</t>
   </si>
   <si>
-    <t>Удалить участника из группы с модератором</t>
-  </si>
-  <si>
-    <t>Удалить администратора из группы с модератором</t>
-  </si>
-  <si>
     <t>Администратор удалён</t>
   </si>
   <si>
-    <t>Скрыть беседу из списка чатов</t>
-  </si>
-  <si>
     <t>Беседа скрыта (не отображается в списке чатов)</t>
   </si>
   <si>
-    <t>Показать скрытую беседу в списке чатов</t>
-  </si>
-  <si>
     <t>Беседа отображается в списке чатов</t>
   </si>
   <si>
-    <t>Ввести текст с написанием справа-налево</t>
-  </si>
-  <si>
     <t>Текст отображается справа-налево</t>
   </si>
   <si>
-    <t>Ввести иероглифы</t>
-  </si>
-  <si>
     <t>Иероглифы отображаются корректно</t>
   </si>
   <si>
-    <t>Отправить сообщение только с пробелами</t>
-  </si>
-  <si>
     <t>Сообщение не отправлено</t>
   </si>
   <si>
-    <t>Отправить 25001 символ</t>
-  </si>
-  <si>
     <t>Отправлено 25000 символов (сообщение обрезано до корректной длины)</t>
   </si>
   <si>
-    <t>Отправить пустое сообщение</t>
-  </si>
-  <si>
     <t>Отправка сообщения в чате кнопкой Enter на клавиатуре</t>
   </si>
   <si>
     <t>Отправка сообщения в чате кнопкой "Отправить сообщение"</t>
   </si>
   <si>
-    <t>Ввести имя эмотикона в виде текста</t>
-  </si>
-  <si>
     <t>После отправки отображается эмотикон</t>
   </si>
   <si>
-    <t>Отправить SQL-инъекцию</t>
-  </si>
-  <si>
     <t>Отправляется только текст</t>
   </si>
   <si>
@@ -771,9 +675,6 @@
   </si>
   <si>
     <t>CHE_Ch67</t>
-  </si>
-  <si>
-    <t>Удалить беседу</t>
   </si>
   <si>
     <t>Отправка файла размером 301 Мб</t>
@@ -1199,12 +1100,6 @@
     <t>TC_S14</t>
   </si>
   <si>
-    <t>Удалить беседу через список чатов</t>
-  </si>
-  <si>
-    <t>Удалить беседу через меню внутри чата</t>
-  </si>
-  <si>
     <t>1. Нажать на кнопку "Управление группой" (шестерёнка рядом с именем собеседника)
 2. Выбрать меню "Настройки чата"
 3. Нажать кнопку "Удалить беседу Скайпа"
@@ -1232,18 +1127,12 @@
     <t>Запуск приложения</t>
   </si>
   <si>
-    <t>1 SP</t>
-  </si>
-  <si>
     <t>Основной функционал приложения:</t>
   </si>
   <si>
     <t>Чат</t>
   </si>
   <si>
-    <t>2 SP</t>
-  </si>
-  <si>
     <t>Аудиосообщения</t>
   </si>
   <si>
@@ -1253,16 +1142,10 @@
     <t>Аудиозвонки</t>
   </si>
   <si>
-    <t>3 SP</t>
-  </si>
-  <si>
     <t>Видеозвонки</t>
   </si>
   <si>
     <t>UI</t>
-  </si>
-  <si>
-    <t>4 SP</t>
   </si>
   <si>
     <t>Настройки</t>
@@ -1336,36 +1219,24 @@
     <t>Количество символов в сообщении</t>
   </si>
   <si>
-    <t>Ввести в поле ввода сообщения 28.000 символов</t>
-  </si>
-  <si>
     <t>Размер файла</t>
   </si>
   <si>
     <t>В поле ввода вводится всего 25.000 символов</t>
   </si>
   <si>
-    <t>Отправить файл размером 863 МБ</t>
-  </si>
-  <si>
     <t>Появляется уведомление "Файл слишком большой"/Файл не отправлен</t>
   </si>
   <si>
     <t>Формат файла для аватара</t>
   </si>
   <si>
-    <t>Установить на аватар файл формата .exe</t>
-  </si>
-  <si>
     <t>Появляется уведомление "Формат не поддерживается"</t>
   </si>
   <si>
     <t>Файл большого размера для аватара</t>
   </si>
   <si>
-    <t>Установить на аватар фото размером 50,2 МБ</t>
-  </si>
-  <si>
     <t>JS Script инъекция</t>
   </si>
   <si>
@@ -1379,21 +1250,6 @@
   </si>
   <si>
     <t>Появляется уведомление "Попробуйте другое изображение. Размер этого изображения превышает максимально допустимый."</t>
-  </si>
-  <si>
-    <t>Ввести в поле ввода сообщения SQL-инъекцию</t>
-  </si>
-  <si>
-    <t>Ввести в поле ввода сообщения JS Script инъекцию</t>
-  </si>
-  <si>
-    <t>Ввести в поле ввода сообщения JS String (XSS) инъекцию</t>
-  </si>
-  <si>
-    <t>Ввести в поле ввода сообщения HTML Parsing</t>
-  </si>
-  <si>
-    <t>Ввести в поле ввода сообщения Broken HTML</t>
   </si>
   <si>
     <t>Сообщение отправляется в виде текста/Не оказывает влияния на систему</t>
@@ -1638,6 +1494,126 @@
   </si>
   <si>
     <t>CHE_Ch68</t>
+  </si>
+  <si>
+    <t>Удаление беседы через список чатов</t>
+  </si>
+  <si>
+    <t>Отправка пустого сообщения</t>
+  </si>
+  <si>
+    <t>Отправка видеосообщения</t>
+  </si>
+  <si>
+    <t>Отправка голосового сообщения</t>
+  </si>
+  <si>
+    <t>Удаление беседы через меню внутри чата</t>
+  </si>
+  <si>
+    <t>Выбор сообщения</t>
+  </si>
+  <si>
+    <t>Пометка сообщения как непрочитанного</t>
+  </si>
+  <si>
+    <t>"Пожаловаться на сообщение"</t>
+  </si>
+  <si>
+    <t>Ввод имя эмотикона в виде текста</t>
+  </si>
+  <si>
+    <t>Отправка нескольких контактов</t>
+  </si>
+  <si>
+    <t>Отмена записи голосового сообщения</t>
+  </si>
+  <si>
+    <t>Отмена запланированного звонка</t>
+  </si>
+  <si>
+    <t>Создание опроса</t>
+  </si>
+  <si>
+    <t>Удаление созданного опроса</t>
+  </si>
+  <si>
+    <t>Установка аватара группового чата</t>
+  </si>
+  <si>
+    <t>Изменение аватара группового чата</t>
+  </si>
+  <si>
+    <t>Удаление аватара группового чата</t>
+  </si>
+  <si>
+    <t>Изменение название группового чата</t>
+  </si>
+  <si>
+    <t>Копирование ссылки на приглашение в чат в буфер обмена</t>
+  </si>
+  <si>
+    <t>Удаление участника из группового чата</t>
+  </si>
+  <si>
+    <t>Добавление пользователя на роль администратора в группу с модератором</t>
+  </si>
+  <si>
+    <t>Удаление участника из группы с модератором</t>
+  </si>
+  <si>
+    <t>Удаление администратора из группы с модератором</t>
+  </si>
+  <si>
+    <t>Показ скрытой беседы в списке чатов</t>
+  </si>
+  <si>
+    <t>Скрытие беседы из списка чатов</t>
+  </si>
+  <si>
+    <t>Выход из группы с модератором</t>
+  </si>
+  <si>
+    <t>Ввод текста с написанием справа-налево</t>
+  </si>
+  <si>
+    <t>Ввод иероглифов</t>
+  </si>
+  <si>
+    <t>Отправка сообщения только с пробелами</t>
+  </si>
+  <si>
+    <t>Отправка 25001 символа</t>
+  </si>
+  <si>
+    <t>Отправка SQL-инъекции</t>
+  </si>
+  <si>
+    <t>Ввод в поле ввода сообщения 28.000 символов</t>
+  </si>
+  <si>
+    <t>Ввод в поле ввода сообщения HTML Parsing</t>
+  </si>
+  <si>
+    <t>Ввод в поле ввода сообщения Broken HTML</t>
+  </si>
+  <si>
+    <t>Ввод в поле ввода сообщения JS String (XSS) инъекции</t>
+  </si>
+  <si>
+    <t>Ввод в поле ввода сообщения JS Script инъекции</t>
+  </si>
+  <si>
+    <t>Ввод в поле ввода сообщения SQL-инъекции</t>
+  </si>
+  <si>
+    <t>Установка на аватар фото размером 50,2 МБ</t>
+  </si>
+  <si>
+    <t>Установка на аватар файл формата .exe</t>
+  </si>
+  <si>
+    <t>Отправка файла размером 863 МБ</t>
   </si>
 </sst>
 </file>
@@ -5140,7 +5116,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5163,7 +5139,7 @@
       <c r="A2" s="59"/>
       <c r="B2" s="59"/>
       <c r="C2" s="91" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="D2" s="91"/>
       <c r="E2" s="91"/>
@@ -5176,7 +5152,7 @@
       <c r="C3" s="60"/>
       <c r="D3" s="60"/>
       <c r="E3" s="73" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
       <c r="F3" s="59"/>
       <c r="G3" s="59"/>
@@ -5194,13 +5170,13 @@
       <c r="A5" s="74"/>
       <c r="B5" s="74"/>
       <c r="C5" s="75" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="D5" s="76" t="s">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="E5" s="77" t="s">
-        <v>358</v>
+        <v>323</v>
       </c>
       <c r="F5" s="78"/>
       <c r="G5" s="74"/>
@@ -5212,10 +5188,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="63" t="s">
-        <v>359</v>
-      </c>
-      <c r="E6" s="64" t="s">
-        <v>360</v>
+        <v>324</v>
+      </c>
+      <c r="E6" s="64">
+        <v>1</v>
       </c>
       <c r="F6" s="59"/>
       <c r="G6" s="59"/>
@@ -5229,8 +5205,8 @@
       <c r="D7" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="67" t="s">
-        <v>360</v>
+      <c r="E7" s="67">
+        <v>1</v>
       </c>
       <c r="F7" s="59"/>
       <c r="G7" s="59"/>
@@ -5242,7 +5218,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="66" t="s">
-        <v>361</v>
+        <v>325</v>
       </c>
       <c r="E8" s="68"/>
       <c r="F8" s="59"/>
@@ -5253,10 +5229,10 @@
       <c r="B9" s="59"/>
       <c r="C9" s="69"/>
       <c r="D9" s="66" t="s">
-        <v>362</v>
-      </c>
-      <c r="E9" s="67" t="s">
-        <v>363</v>
+        <v>326</v>
+      </c>
+      <c r="E9" s="67">
+        <v>2</v>
       </c>
       <c r="F9" s="59"/>
       <c r="G9" s="59"/>
@@ -5266,10 +5242,10 @@
       <c r="B10" s="59"/>
       <c r="C10" s="69"/>
       <c r="D10" s="66" t="s">
-        <v>364</v>
-      </c>
-      <c r="E10" s="67" t="s">
-        <v>360</v>
+        <v>327</v>
+      </c>
+      <c r="E10" s="67">
+        <v>1</v>
       </c>
       <c r="F10" s="59"/>
       <c r="G10" s="59"/>
@@ -5279,10 +5255,10 @@
       <c r="B11" s="59"/>
       <c r="C11" s="69"/>
       <c r="D11" s="66" t="s">
-        <v>365</v>
-      </c>
-      <c r="E11" s="67" t="s">
-        <v>360</v>
+        <v>328</v>
+      </c>
+      <c r="E11" s="67">
+        <v>1</v>
       </c>
       <c r="F11" s="59"/>
       <c r="G11" s="59"/>
@@ -5292,10 +5268,10 @@
       <c r="B12" s="59"/>
       <c r="C12" s="69"/>
       <c r="D12" s="66" t="s">
-        <v>366</v>
-      </c>
-      <c r="E12" s="67" t="s">
-        <v>367</v>
+        <v>329</v>
+      </c>
+      <c r="E12" s="67">
+        <v>3</v>
       </c>
       <c r="F12" s="59"/>
       <c r="G12" s="59"/>
@@ -5305,10 +5281,10 @@
       <c r="B13" s="59"/>
       <c r="C13" s="69"/>
       <c r="D13" s="66" t="s">
-        <v>368</v>
-      </c>
-      <c r="E13" s="67" t="s">
-        <v>367</v>
+        <v>330</v>
+      </c>
+      <c r="E13" s="67">
+        <v>3</v>
       </c>
       <c r="F13" s="59"/>
       <c r="G13" s="59"/>
@@ -5320,10 +5296,10 @@
         <v>4</v>
       </c>
       <c r="D14" s="66" t="s">
-        <v>369</v>
-      </c>
-      <c r="E14" s="67" t="s">
-        <v>370</v>
+        <v>331</v>
+      </c>
+      <c r="E14" s="67">
+        <v>4</v>
       </c>
       <c r="F14" s="59"/>
       <c r="G14" s="59"/>
@@ -5336,10 +5312,10 @@
         <v>5</v>
       </c>
       <c r="D15" s="66" t="s">
-        <v>371</v>
-      </c>
-      <c r="E15" s="67" t="s">
-        <v>370</v>
+        <v>332</v>
+      </c>
+      <c r="E15" s="67">
+        <v>4</v>
       </c>
       <c r="F15" s="59"/>
       <c r="G15" s="59"/>
@@ -5352,10 +5328,10 @@
         <v>6</v>
       </c>
       <c r="D16" s="66" t="s">
-        <v>372</v>
-      </c>
-      <c r="E16" s="67" t="s">
-        <v>360</v>
+        <v>333</v>
+      </c>
+      <c r="E16" s="67">
+        <v>1</v>
       </c>
       <c r="F16" s="59"/>
       <c r="G16" s="59"/>
@@ -5368,10 +5344,10 @@
         <v>7</v>
       </c>
       <c r="D17" s="66" t="s">
-        <v>373</v>
-      </c>
-      <c r="E17" s="67" t="s">
-        <v>360</v>
+        <v>334</v>
+      </c>
+      <c r="E17" s="67">
+        <v>1</v>
       </c>
       <c r="F17" s="59"/>
       <c r="G17" s="59"/>
@@ -5384,10 +5360,10 @@
         <v>8</v>
       </c>
       <c r="D18" s="66" t="s">
-        <v>374</v>
-      </c>
-      <c r="E18" s="67" t="s">
-        <v>360</v>
+        <v>335</v>
+      </c>
+      <c r="E18" s="67">
+        <v>1</v>
       </c>
       <c r="F18" s="59"/>
       <c r="G18" s="59"/>
@@ -5400,10 +5376,10 @@
         <v>9</v>
       </c>
       <c r="D19" s="66" t="s">
-        <v>375</v>
-      </c>
-      <c r="E19" s="67" t="s">
-        <v>360</v>
+        <v>336</v>
+      </c>
+      <c r="E19" s="67">
+        <v>1</v>
       </c>
       <c r="F19" s="59"/>
       <c r="G19" s="59"/>
@@ -5416,10 +5392,10 @@
         <v>10</v>
       </c>
       <c r="D20" s="66" t="s">
-        <v>376</v>
-      </c>
-      <c r="E20" s="67" t="s">
-        <v>360</v>
+        <v>337</v>
+      </c>
+      <c r="E20" s="67">
+        <v>1</v>
       </c>
       <c r="F20" s="59"/>
       <c r="G20" s="59"/>
@@ -5432,10 +5408,10 @@
         <v>11</v>
       </c>
       <c r="D21" s="71" t="s">
-        <v>377</v>
-      </c>
-      <c r="E21" s="72" t="s">
-        <v>363</v>
+        <v>338</v>
+      </c>
+      <c r="E21" s="72">
+        <v>2</v>
       </c>
       <c r="F21" s="59"/>
       <c r="G21" s="59"/>
@@ -5468,7 +5444,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5524,7 +5500,7 @@
         <v>53</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E2" s="36" t="s">
         <v>54</v>
@@ -5546,13 +5522,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="F3" s="36" t="s">
         <v>65</v>
@@ -5571,13 +5547,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="F4" s="36" t="s">
         <v>65</v>
@@ -5596,10 +5572,10 @@
         <v>6</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E5" s="37" t="s">
         <v>74</v>
@@ -5621,10 +5597,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E6" s="37" t="s">
         <v>75</v>
@@ -5646,16 +5622,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G7" s="40" t="s">
         <v>5</v>
@@ -5671,16 +5647,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G8" s="40" t="s">
         <v>5</v>
@@ -5696,16 +5672,16 @@
         <v>6</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G9" s="40" t="s">
         <v>5</v>
@@ -5721,16 +5697,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="G10" s="40" t="s">
         <v>5</v>
@@ -5746,16 +5722,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>117</v>
+        <v>434</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G11" s="40" t="s">
         <v>5</v>
@@ -5771,16 +5747,16 @@
         <v>6</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>121</v>
+        <v>433</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G12" s="40" t="s">
         <v>5</v>
@@ -5796,16 +5772,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>167</v>
+        <v>432</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="G13" s="40" t="s">
         <v>5</v>
@@ -5821,16 +5797,16 @@
         <v>6</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="G14" s="40" t="s">
         <v>5</v>
@@ -6326,7 +6302,7 @@
   <sheetViews>
     <sheetView zoomScale="95" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6404,7 +6380,7 @@
     </row>
     <row r="2" spans="1:26" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
-        <v>302</v>
+        <v>269</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>6</v>
@@ -6413,20 +6389,20 @@
         <v>53</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E2" s="23"/>
       <c r="F2" s="25" t="s">
         <v>54</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
       <c r="H2" s="36" t="s">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c r="I2" s="36" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="J2" s="40" t="s">
         <v>5</v>
@@ -6436,29 +6412,29 @@
     </row>
     <row r="3" spans="1:26" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="B3" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="56" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="J3" s="40" t="s">
         <v>5</v>
@@ -6468,29 +6444,29 @@
     </row>
     <row r="4" spans="1:26" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="B4" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E4" s="23"/>
       <c r="F4" s="56" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="J4" s="40" t="s">
         <v>5</v>
@@ -6500,29 +6476,29 @@
     </row>
     <row r="5" spans="1:26" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="B5" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="56" t="s">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>324</v>
+        <v>291</v>
       </c>
       <c r="J5" s="40" t="s">
         <v>5</v>
@@ -6532,29 +6508,29 @@
     </row>
     <row r="6" spans="1:26" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="56" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>324</v>
+        <v>291</v>
       </c>
       <c r="J6" s="40" t="s">
         <v>5</v>
@@ -6564,29 +6540,29 @@
     </row>
     <row r="7" spans="1:26" customFormat="1" ht="155.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="56" t="s">
         <v>75</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="I7" s="38" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="J7" s="40" t="s">
         <v>5</v>
@@ -6596,29 +6572,29 @@
     </row>
     <row r="8" spans="1:26" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="34" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="B8" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="56" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="J8" s="40" t="s">
         <v>5</v>
@@ -6628,29 +6604,29 @@
     </row>
     <row r="9" spans="1:26" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="B9" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="56" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>336</v>
+        <v>303</v>
       </c>
       <c r="I9" s="38" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="J9" s="40" t="s">
         <v>5</v>
@@ -6660,29 +6636,29 @@
     </row>
     <row r="10" spans="1:26" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="34" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="56" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="I10" s="38" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="J10" s="40" t="s">
         <v>5</v>
@@ -6692,29 +6668,29 @@
     </row>
     <row r="11" spans="1:26" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="34" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="B11" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="56" t="s">
-        <v>335</v>
+        <v>302</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="J11" s="40" t="s">
         <v>8</v>
@@ -6724,29 +6700,29 @@
     </row>
     <row r="12" spans="1:26" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="34" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="B12" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="56" t="s">
-        <v>117</v>
+        <v>434</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="J12" s="40" t="s">
         <v>5</v>
@@ -6756,29 +6732,29 @@
     </row>
     <row r="13" spans="1:26" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="34" t="s">
-        <v>314</v>
+        <v>281</v>
       </c>
       <c r="B13" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="56" t="s">
-        <v>121</v>
+        <v>433</v>
       </c>
       <c r="G13" s="38" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="I13" s="38" t="s">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="J13" s="40" t="s">
         <v>5</v>
@@ -6788,29 +6764,29 @@
     </row>
     <row r="14" spans="1:26" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="34" t="s">
-        <v>315</v>
+        <v>282</v>
       </c>
       <c r="B14" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="56" t="s">
-        <v>167</v>
+        <v>432</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="J14" s="40" t="s">
         <v>8</v>
@@ -6820,29 +6796,29 @@
     </row>
     <row r="15" spans="1:26" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="34" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="B15" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="56" t="s">
-        <v>351</v>
+        <v>431</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="J15" s="40" t="s">
         <v>5</v>
@@ -6852,29 +6828,29 @@
     </row>
     <row r="16" spans="1:26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="34" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="B16" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="56" t="s">
-        <v>352</v>
+        <v>435</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="J16" s="40" t="s">
         <v>5</v>
@@ -20181,7 +20157,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
+      <selection pane="bottomLeft" activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -20232,7 +20208,7 @@
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>6</v>
@@ -20257,7 +20233,7 @@
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="B3" s="34" t="s">
         <v>6</v>
@@ -20282,13 +20258,13 @@
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="B4" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>38</v>
@@ -20307,13 +20283,13 @@
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="B5" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>38</v>
@@ -20332,13 +20308,13 @@
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>38</v>
@@ -20357,7 +20333,7 @@
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>6</v>
@@ -20382,7 +20358,7 @@
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="34" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="B8" s="34" t="s">
         <v>6</v>
@@ -20407,7 +20383,7 @@
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="B9" s="34" t="s">
         <v>6</v>
@@ -20432,7 +20408,7 @@
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="34" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>9</v>
@@ -20457,19 +20433,19 @@
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="34" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="B11" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="F11" s="36" t="s">
         <v>65</v>
@@ -20482,19 +20458,19 @@
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="34" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="B12" s="34" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="F12" s="36" t="s">
         <v>65</v>
@@ -20507,13 +20483,13 @@
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="34" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="B13" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>38</v>
@@ -20532,13 +20508,13 @@
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="34" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="B14" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>38</v>
@@ -20557,13 +20533,13 @@
     </row>
     <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="34" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="B15" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>38</v>
@@ -20582,13 +20558,13 @@
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="34" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="B16" s="34" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>38</v>
@@ -20607,13 +20583,13 @@
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="34" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="B17" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>38</v>
@@ -20632,13 +20608,13 @@
     </row>
     <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="34" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="B18" s="34" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>38</v>
@@ -20657,13 +20633,13 @@
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="34" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="B19" s="34" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>38</v>
@@ -20682,19 +20658,19 @@
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="34" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="B20" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F20" s="37" t="s">
         <v>81</v>
@@ -20707,19 +20683,19 @@
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="34" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="B21" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F21" s="37" t="s">
         <v>82</v>
@@ -20732,22 +20708,22 @@
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="34" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="B22" s="34" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="D22" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E22" s="37" t="s">
+        <v>436</v>
+      </c>
+      <c r="F22" s="37" t="s">
         <v>83</v>
-      </c>
-      <c r="F22" s="37" t="s">
-        <v>84</v>
       </c>
       <c r="G22" s="40" t="s">
         <v>5</v>
@@ -20757,22 +20733,22 @@
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="34" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="B23" s="34" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E23" s="37" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="G23" s="40" t="s">
         <v>5</v>
@@ -20782,22 +20758,22 @@
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="34" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="B24" s="34" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="G24" s="40" t="s">
         <v>5</v>
@@ -20807,22 +20783,22 @@
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="34" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="B25" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E25" s="37" t="s">
-        <v>87</v>
+        <v>437</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G25" s="40" t="s">
         <v>5</v>
@@ -20832,22 +20808,22 @@
     </row>
     <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="34" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="B26" s="34" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F26" s="38" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G26" s="40" t="s">
         <v>5</v>
@@ -20857,22 +20833,22 @@
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="34" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="B27" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E27" s="37" t="s">
-        <v>91</v>
+        <v>438</v>
       </c>
       <c r="F27" s="37" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G27" s="40" t="s">
         <v>5</v>
@@ -20882,22 +20858,22 @@
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="34" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="B28" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="41" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="D28" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E28" s="37" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F28" s="37" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G28" s="40" t="s">
         <v>5</v>
@@ -20907,22 +20883,22 @@
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="34" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="B29" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="D29" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F29" s="38" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G29" s="40" t="s">
         <v>5</v>
@@ -20932,22 +20908,22 @@
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="34" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="B30" s="34" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="D30" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F30" s="37" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G30" s="40" t="s">
         <v>5</v>
@@ -20957,22 +20933,22 @@
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="34" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="B31" s="34" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="D31" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E31" s="37" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F31" s="37" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G31" s="40" t="s">
         <v>5</v>
@@ -20982,22 +20958,22 @@
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="34" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="B32" s="34" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="D32" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E32" s="37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F32" s="37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G32" s="40" t="s">
         <v>5</v>
@@ -21007,22 +20983,22 @@
     </row>
     <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="34" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="B33" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="D33" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E33" s="37" t="s">
-        <v>170</v>
+        <v>439</v>
       </c>
       <c r="F33" s="37" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="G33" s="40" t="s">
         <v>5</v>
@@ -21032,22 +21008,22 @@
     </row>
     <row r="34" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="34" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="B34" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="D34" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E34" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" s="38" t="s">
         <v>103</v>
-      </c>
-      <c r="F34" s="38" t="s">
-        <v>106</v>
       </c>
       <c r="G34" s="40" t="s">
         <v>5</v>
@@ -21057,22 +21033,22 @@
     </row>
     <row r="35" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="34" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="B35" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="D35" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E35" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F35" s="38" t="s">
         <v>104</v>
-      </c>
-      <c r="F35" s="38" t="s">
-        <v>107</v>
       </c>
       <c r="G35" s="40" t="s">
         <v>5</v>
@@ -21082,22 +21058,22 @@
     </row>
     <row r="36" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="34" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="B36" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="D36" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E36" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" s="38" t="s">
         <v>105</v>
-      </c>
-      <c r="F36" s="38" t="s">
-        <v>108</v>
       </c>
       <c r="G36" s="40" t="s">
         <v>5</v>
@@ -21107,22 +21083,22 @@
     </row>
     <row r="37" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="34" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="B37" s="34" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="D37" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E37" s="38" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F37" s="37" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G37" s="40" t="s">
         <v>5</v>
@@ -21132,22 +21108,22 @@
     </row>
     <row r="38" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="34" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="B38" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>475</v>
+        <v>427</v>
       </c>
       <c r="D38" s="82" t="s">
         <v>38</v>
       </c>
       <c r="E38" s="38" t="s">
-        <v>476</v>
+        <v>428</v>
       </c>
       <c r="F38" s="37" t="s">
-        <v>477</v>
+        <v>429</v>
       </c>
       <c r="G38" s="40" t="s">
         <v>8</v>
@@ -21157,22 +21133,22 @@
     </row>
     <row r="39" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="34" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="B39" s="34" t="s">
         <v>9</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="D39" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E39" s="38" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F39" s="37" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G39" s="40" t="s">
         <v>5</v>
@@ -21182,22 +21158,22 @@
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="34" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="B40" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="41" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D40" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E40" s="37" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F40" s="37" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G40" s="40" t="s">
         <v>5</v>
@@ -21207,22 +21183,22 @@
     </row>
     <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="34" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="B41" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C41" s="41" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="D41" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E41" s="37" t="s">
-        <v>115</v>
+        <v>242</v>
       </c>
       <c r="F41" s="37" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G41" s="40" t="s">
         <v>5</v>
@@ -21232,22 +21208,22 @@
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="34" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="B42" s="34" t="s">
         <v>9</v>
       </c>
       <c r="C42" s="41" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="D42" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E42" s="37" t="s">
-        <v>131</v>
+        <v>440</v>
       </c>
       <c r="F42" s="37" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="G42" s="40" t="s">
         <v>5</v>
@@ -21257,22 +21233,22 @@
     </row>
     <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="34" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="B43" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C43" s="41" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="D43" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E43" s="37" t="s">
-        <v>117</v>
+        <v>434</v>
       </c>
       <c r="F43" s="37" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G43" s="40" t="s">
         <v>5</v>
@@ -21282,22 +21258,22 @@
     </row>
     <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="34" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="B44" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C44" s="41" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="D44" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E44" s="37" t="s">
-        <v>119</v>
+        <v>441</v>
       </c>
       <c r="F44" s="37" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G44" s="40" t="s">
         <v>5</v>
@@ -21307,22 +21283,22 @@
     </row>
     <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="34" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="B45" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C45" s="41" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="D45" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E45" s="37" t="s">
-        <v>121</v>
+        <v>433</v>
       </c>
       <c r="F45" s="37" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G45" s="40" t="s">
         <v>5</v>
@@ -21332,22 +21308,22 @@
     </row>
     <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="34" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="B46" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="D46" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E46" s="37" t="s">
-        <v>123</v>
+        <v>246</v>
       </c>
       <c r="F46" s="37" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G46" s="40" t="s">
         <v>5</v>
@@ -21357,22 +21333,22 @@
     </row>
     <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="34" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="B47" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C47" s="41" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="D47" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E47" s="37" t="s">
-        <v>125</v>
+        <v>442</v>
       </c>
       <c r="F47" s="37" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="G47" s="40" t="s">
         <v>5</v>
@@ -21382,22 +21358,22 @@
     </row>
     <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="34" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="B48" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C48" s="41" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="D48" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E48" s="37" t="s">
-        <v>127</v>
+        <v>443</v>
       </c>
       <c r="F48" s="37" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="G48" s="40" t="s">
         <v>5</v>
@@ -21407,22 +21383,22 @@
     </row>
     <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="34" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="B49" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C49" s="41" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="D49" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E49" s="37" t="s">
-        <v>129</v>
+        <v>444</v>
       </c>
       <c r="F49" s="37" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="G49" s="40" t="s">
         <v>5</v>
@@ -21432,22 +21408,22 @@
     </row>
     <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="34" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="B50" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="D50" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E50" s="37" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="F50" s="37" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="G50" s="40" t="s">
         <v>5</v>
@@ -21457,22 +21433,22 @@
     </row>
     <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="34" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="B51" s="34" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="41" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="D51" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E51" s="37" t="s">
-        <v>134</v>
+        <v>445</v>
       </c>
       <c r="F51" s="37" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G51" s="40" t="s">
         <v>5</v>
@@ -21482,22 +21458,22 @@
     </row>
     <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="34" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="B52" s="34" t="s">
         <v>9</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="D52" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E52" s="37" t="s">
-        <v>135</v>
+        <v>446</v>
       </c>
       <c r="F52" s="37" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="G52" s="40" t="s">
         <v>5</v>
@@ -21507,22 +21483,22 @@
     </row>
     <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="34" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="B53" s="34" t="s">
         <v>9</v>
       </c>
       <c r="C53" s="41" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="D53" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E53" s="37" t="s">
-        <v>137</v>
+        <v>447</v>
       </c>
       <c r="F53" s="37" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="G53" s="40" t="s">
         <v>5</v>
@@ -21532,22 +21508,22 @@
     </row>
     <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="34" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="B54" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C54" s="41" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="D54" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E54" s="37" t="s">
-        <v>140</v>
+        <v>448</v>
       </c>
       <c r="F54" s="37" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="G54" s="40" t="s">
         <v>5</v>
@@ -21557,22 +21533,22 @@
     </row>
     <row r="55" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="34" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="B55" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C55" s="41" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
       <c r="D55" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E55" s="38" t="s">
-        <v>141</v>
+        <v>449</v>
       </c>
       <c r="F55" s="37" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="G55" s="40" t="s">
         <v>5</v>
@@ -21582,22 +21558,22 @@
     </row>
     <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="34" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="B56" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C56" s="41" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
       <c r="D56" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E56" s="38" t="s">
-        <v>145</v>
+        <v>450</v>
       </c>
       <c r="F56" s="37" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="G56" s="40" t="s">
         <v>5</v>
@@ -21607,22 +21583,22 @@
     </row>
     <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="34" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="B57" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C57" s="41" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="D57" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E57" s="37" t="s">
-        <v>143</v>
+        <v>253</v>
       </c>
       <c r="F57" s="37" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="G57" s="40" t="s">
         <v>5</v>
@@ -21632,22 +21608,22 @@
     </row>
     <row r="58" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="34" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="B58" s="34" t="s">
         <v>9</v>
       </c>
       <c r="C58" s="41" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="D58" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E58" s="38" t="s">
-        <v>147</v>
+        <v>451</v>
       </c>
       <c r="F58" s="38" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="G58" s="40" t="s">
         <v>5</v>
@@ -21657,22 +21633,22 @@
     </row>
     <row r="59" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="34" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="B59" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C59" s="41" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
       <c r="D59" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E59" s="38" t="s">
-        <v>152</v>
+        <v>452</v>
       </c>
       <c r="F59" s="37" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="G59" s="40" t="s">
         <v>5</v>
@@ -21682,22 +21658,22 @@
     </row>
     <row r="60" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="34" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="B60" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C60" s="41" t="s">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="D60" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E60" s="38" t="s">
-        <v>153</v>
+        <v>453</v>
       </c>
       <c r="F60" s="37" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="G60" s="40" t="s">
         <v>5</v>
@@ -21707,22 +21683,22 @@
     </row>
     <row r="61" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="34" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="B61" s="34" t="s">
         <v>9</v>
       </c>
       <c r="C61" s="41" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="D61" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E61" s="38" t="s">
-        <v>155</v>
+        <v>455</v>
       </c>
       <c r="F61" s="37" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="G61" s="40" t="s">
         <v>5</v>
@@ -21732,22 +21708,22 @@
     </row>
     <row r="62" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="34" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="B62" s="34" t="s">
         <v>9</v>
       </c>
       <c r="C62" s="41" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="D62" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E62" s="38" t="s">
-        <v>157</v>
+        <v>454</v>
       </c>
       <c r="F62" s="37" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="G62" s="40" t="s">
         <v>5</v>
@@ -21757,22 +21733,22 @@
     </row>
     <row r="63" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="34" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="B63" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C63" s="41" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="D63" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E63" s="37" t="s">
-        <v>149</v>
+        <v>456</v>
       </c>
       <c r="F63" s="37" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="G63" s="40" t="s">
         <v>5</v>
@@ -21782,22 +21758,22 @@
     </row>
     <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="34" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B64" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C64" s="41" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="D64" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E64" s="37" t="s">
-        <v>159</v>
+        <v>457</v>
       </c>
       <c r="F64" s="37" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="G64" s="40" t="s">
         <v>5</v>
@@ -21807,22 +21783,22 @@
     </row>
     <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="34" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="B65" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C65" s="41" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="D65" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E65" s="37" t="s">
-        <v>161</v>
+        <v>458</v>
       </c>
       <c r="F65" s="37" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="G65" s="40" t="s">
         <v>5</v>
@@ -21832,22 +21808,22 @@
     </row>
     <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="34" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="B66" s="34" t="s">
         <v>9</v>
       </c>
       <c r="C66" s="41" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="D66" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E66" s="37" t="s">
-        <v>163</v>
+        <v>459</v>
       </c>
       <c r="F66" s="37" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="G66" s="40" t="s">
         <v>8</v>
@@ -21857,22 +21833,22 @@
     </row>
     <row r="67" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="34" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="B67" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C67" s="41" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="D67" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E67" s="37" t="s">
-        <v>165</v>
+        <v>460</v>
       </c>
       <c r="F67" s="38" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="G67" s="40" t="s">
         <v>8</v>
@@ -21882,22 +21858,22 @@
     </row>
     <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="34" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="B68" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C68" s="41" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="D68" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E68" s="37" t="s">
-        <v>167</v>
+        <v>432</v>
       </c>
       <c r="F68" s="37" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="G68" s="40" t="s">
         <v>8</v>
@@ -21907,22 +21883,22 @@
     </row>
     <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="34" t="s">
-        <v>478</v>
+        <v>430</v>
       </c>
       <c r="B69" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C69" s="41" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="D69" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E69" s="37" t="s">
-        <v>172</v>
+        <v>461</v>
       </c>
       <c r="F69" s="37" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="G69" s="40" t="s">
         <v>5</v>
@@ -32354,7 +32330,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -32403,22 +32379,22 @@
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>390</v>
+        <v>462</v>
       </c>
       <c r="F2" s="53" t="s">
-        <v>392</v>
+        <v>352</v>
       </c>
       <c r="G2" s="40" t="s">
         <v>5</v>
@@ -32428,22 +32404,22 @@
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
-        <v>381</v>
+        <v>342</v>
       </c>
       <c r="B3" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>391</v>
+        <v>351</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E3" s="80" t="s">
-        <v>393</v>
+        <v>470</v>
       </c>
       <c r="F3" s="53" t="s">
-        <v>394</v>
+        <v>353</v>
       </c>
       <c r="G3" s="40" t="s">
         <v>5</v>
@@ -32451,22 +32427,22 @@
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="B4" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>395</v>
+        <v>354</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E4" s="80" t="s">
-        <v>396</v>
+        <v>469</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>397</v>
+        <v>355</v>
       </c>
       <c r="G4" s="40" t="s">
         <v>5</v>
@@ -32474,22 +32450,22 @@
     </row>
     <row r="5" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
-        <v>383</v>
+        <v>344</v>
       </c>
       <c r="B5" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>398</v>
+        <v>356</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E5" s="80" t="s">
-        <v>399</v>
+        <v>468</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>404</v>
+        <v>361</v>
       </c>
       <c r="G5" s="40" t="s">
         <v>5</v>
@@ -32497,22 +32473,22 @@
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E6" s="53" t="s">
-        <v>405</v>
+        <v>467</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="G6" s="40" t="s">
         <v>5</v>
@@ -32520,22 +32496,22 @@
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>400</v>
+        <v>357</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E7" s="53" t="s">
-        <v>406</v>
+        <v>466</v>
       </c>
       <c r="F7" s="53" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="G7" s="40" t="s">
         <v>5</v>
@@ -32543,22 +32519,22 @@
     </row>
     <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="34" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="B8" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>401</v>
+        <v>358</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E8" s="53" t="s">
-        <v>407</v>
+        <v>465</v>
       </c>
       <c r="F8" s="53" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="G8" s="40" t="s">
         <v>5</v>
@@ -32566,22 +32542,22 @@
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
-        <v>387</v>
+        <v>348</v>
       </c>
       <c r="B9" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>402</v>
+        <v>359</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E9" s="53" t="s">
-        <v>408</v>
+        <v>463</v>
       </c>
       <c r="F9" s="53" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="G9" s="40" t="s">
         <v>5</v>
@@ -32589,22 +32565,22 @@
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="34" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>403</v>
+        <v>360</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E10" s="53" t="s">
-        <v>409</v>
+        <v>464</v>
       </c>
       <c r="F10" s="53" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="G10" s="40" t="s">
         <v>5</v>
@@ -32718,7 +32694,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>421</v>
+        <v>373</v>
       </c>
       <c r="C1" s="51" t="s">
         <v>18</v>
@@ -32736,7 +32712,7 @@
         <v>23</v>
       </c>
       <c r="H1" s="46" t="s">
-        <v>423</v>
+        <v>375</v>
       </c>
       <c r="I1" s="46" t="s">
         <v>24</v>
@@ -32750,7 +32726,7 @@
     </row>
     <row r="2" spans="1:11" s="24" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="97" t="s">
-        <v>411</v>
+        <v>363</v>
       </c>
       <c r="B2" s="98" t="s">
         <v>7</v>
@@ -32759,26 +32735,26 @@
         <v>6</v>
       </c>
       <c r="D2" s="92" t="s">
-        <v>426</v>
+        <v>378</v>
       </c>
       <c r="E2" s="92" t="s">
-        <v>424</v>
+        <v>376</v>
       </c>
       <c r="F2" s="92" t="s">
-        <v>473</v>
+        <v>425</v>
       </c>
       <c r="G2" s="92" t="s">
-        <v>422</v>
+        <v>374</v>
       </c>
       <c r="H2" s="84" t="s">
-        <v>425</v>
+        <v>377</v>
       </c>
       <c r="I2" s="93" t="s">
         <v>37</v>
       </c>
       <c r="J2" s="94"/>
       <c r="K2" s="95" t="s">
-        <v>474</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="24" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -32790,7 +32766,7 @@
       <c r="F3" s="92"/>
       <c r="G3" s="92"/>
       <c r="H3" s="84" t="s">
-        <v>427</v>
+        <v>379</v>
       </c>
       <c r="I3" s="93"/>
       <c r="J3" s="94"/>
@@ -32798,7 +32774,7 @@
     </row>
     <row r="4" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>412</v>
+        <v>364</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>9</v>
@@ -32807,30 +32783,30 @@
         <v>11</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>429</v>
+        <v>381</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>428</v>
+        <v>380</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>430</v>
+        <v>382</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>431</v>
+        <v>383</v>
       </c>
       <c r="H4" s="85" t="s">
-        <v>437</v>
+        <v>389</v>
       </c>
       <c r="I4" s="27" t="s">
         <v>37</v>
       </c>
       <c r="K4" s="83" t="s">
-        <v>474</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>413</v>
+        <v>365</v>
       </c>
       <c r="B5" s="88" t="s">
         <v>36</v>
@@ -32839,31 +32815,31 @@
         <v>11</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>432</v>
+        <v>384</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>433</v>
+        <v>385</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>434</v>
+        <v>386</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>435</v>
+        <v>387</v>
       </c>
       <c r="H5" s="85" t="s">
-        <v>436</v>
+        <v>388</v>
       </c>
       <c r="I5" s="27" t="s">
         <v>37</v>
       </c>
       <c r="J5" s="81"/>
       <c r="K5" s="83" t="s">
-        <v>474</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>414</v>
+        <v>366</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>9</v>
@@ -32872,30 +32848,30 @@
         <v>6</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>438</v>
+        <v>390</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>439</v>
+        <v>391</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>440</v>
+        <v>392</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>441</v>
+        <v>393</v>
       </c>
       <c r="H6" s="85" t="s">
-        <v>442</v>
+        <v>394</v>
       </c>
       <c r="I6" s="27" t="s">
         <v>37</v>
       </c>
       <c r="K6" s="83" t="s">
-        <v>474</v>
+        <v>426</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
-        <v>415</v>
+        <v>367</v>
       </c>
       <c r="B7" s="88" t="s">
         <v>36</v>
@@ -32904,30 +32880,30 @@
         <v>11</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>446</v>
+        <v>398</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>443</v>
+        <v>395</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>444</v>
+        <v>396</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>445</v>
+        <v>397</v>
       </c>
       <c r="H7" s="85" t="s">
-        <v>447</v>
+        <v>399</v>
       </c>
       <c r="I7" s="27" t="s">
         <v>37</v>
       </c>
       <c r="K7" s="83" t="s">
-        <v>474</v>
+        <v>426</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
-        <v>416</v>
+        <v>368</v>
       </c>
       <c r="B8" s="88" t="s">
         <v>36</v>
@@ -32936,30 +32912,30 @@
         <v>11</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>448</v>
+        <v>400</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>449</v>
+        <v>401</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>450</v>
+        <v>402</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>451</v>
+        <v>403</v>
       </c>
       <c r="H8" s="85" t="s">
-        <v>452</v>
+        <v>404</v>
       </c>
       <c r="I8" s="27" t="s">
         <v>37</v>
       </c>
       <c r="K8" s="83" t="s">
-        <v>474</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
-        <v>417</v>
+        <v>369</v>
       </c>
       <c r="B9" s="88" t="s">
         <v>36</v>
@@ -32968,30 +32944,30 @@
         <v>11</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>453</v>
+        <v>405</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>454</v>
+        <v>406</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>455</v>
+        <v>407</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>456</v>
+        <v>408</v>
       </c>
       <c r="H9" s="85" t="s">
-        <v>457</v>
+        <v>409</v>
       </c>
       <c r="I9" s="27" t="s">
         <v>37</v>
       </c>
       <c r="K9" s="83" t="s">
-        <v>474</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
-        <v>418</v>
+        <v>370</v>
       </c>
       <c r="B10" s="26" t="s">
         <v>9</v>
@@ -33000,30 +32976,30 @@
         <v>12</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>458</v>
+        <v>410</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>459</v>
+        <v>411</v>
       </c>
       <c r="F10" s="52" t="s">
-        <v>460</v>
+        <v>412</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>462</v>
+        <v>414</v>
       </c>
       <c r="H10" s="85" t="s">
-        <v>461</v>
+        <v>413</v>
       </c>
       <c r="I10" s="27" t="s">
         <v>37</v>
       </c>
       <c r="K10" s="83" t="s">
-        <v>474</v>
+        <v>426</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
-        <v>419</v>
+        <v>371</v>
       </c>
       <c r="B11" s="88" t="s">
         <v>36</v>
@@ -33032,30 +33008,30 @@
         <v>12</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>463</v>
+        <v>415</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>464</v>
+        <v>416</v>
       </c>
       <c r="F11" s="52" t="s">
-        <v>465</v>
+        <v>417</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>466</v>
+        <v>418</v>
       </c>
       <c r="H11" s="85" t="s">
-        <v>467</v>
+        <v>419</v>
       </c>
       <c r="I11" s="27" t="s">
         <v>37</v>
       </c>
       <c r="K11" s="83" t="s">
-        <v>474</v>
+        <v>426</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
-        <v>420</v>
+        <v>372</v>
       </c>
       <c r="B12" s="26" t="s">
         <v>9</v>
@@ -33064,25 +33040,25 @@
         <v>12</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>468</v>
+        <v>420</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>469</v>
+        <v>421</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>470</v>
+        <v>422</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>471</v>
+        <v>423</v>
       </c>
       <c r="H12" s="85" t="s">
-        <v>472</v>
+        <v>424</v>
       </c>
       <c r="I12" s="27" t="s">
         <v>37</v>
       </c>
       <c r="K12" s="83" t="s">
-        <v>474</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
